--- a/news/news.xlsx
+++ b/news/news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/jm_dazae_uniandes_edu_co/Documents/The Colombia COVID-19 Project/DOCUMENTACIÓN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="114_{928E7F7F-F358-4867-BDBC-FCA11BF6E89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70823BE1-3F1C-4DB2-89C3-4FBEF1848C45}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="114_{928E7F7F-F358-4867-BDBC-FCA11BF6E89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14C9E701-DEAD-4B1C-80F0-0A45AD5E6479}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A9789F3-05F9-0441-9A2E-D1F2230A9EF7}"/>
   </bookViews>
@@ -197,15 +197,9 @@
     <t>es_CO</t>
   </si>
   <si>
-    <t>¿Cómo se hace el conteo de enfermos y muertos en la Universidad Johns Hopkins?</t>
-  </si>
-  <si>
     <t>Camilo conversó con la Dra. Kathleen Page, médico infectóloga del Hospital Johns Hopkins y profesora asociada en la escuela de medicina, sobre cómo se hace el conteo mundial de enfermos y muertos por coronavirus.</t>
   </si>
   <si>
-    <t>CNN español</t>
-  </si>
-  <si>
     <t>https://cnnespanol.cnn.com</t>
   </si>
   <si>
@@ -215,12 +209,6 @@
     <t>https://cnnespanol.cnn.com/video/como-se-hace-conteo-enfermos-muertos-universidad-johns-hopkins-kathleen-page-intv-camilo-cnne/</t>
   </si>
   <si>
-    <t>Camilo Egaña,</t>
-  </si>
-  <si>
-    <t>Así se propaga el covid-19 en el aire en espacios cerrados</t>
-  </si>
-  <si>
     <t>Un estudio científico preliminar sobre la propagación del coronavirus indica que las partículas de aerosol que transportan el covid-19 pueden permanecer en el aire más tiempo de lo que se pensaba originalmente.</t>
   </si>
   <si>
@@ -308,9 +296,6 @@
     <t>https://www.nytimes.com/interactive/2020/03/22/world/coronavirus-spread.html</t>
   </si>
   <si>
-    <t>https://vp.nyt.com/video/2020/06/25/87182_1_virus-won-hp-promovid_wg_720p.mp4</t>
-  </si>
-  <si>
     <t>03-22-2020</t>
   </si>
   <si>
@@ -335,9 +320,6 @@
     <t>El Bolivarense</t>
   </si>
   <si>
-    <t>Siga aquí en tiempo real el comportamiento del coronavirus en Colombia.</t>
-  </si>
-  <si>
     <t>The COVID-19 Colombia Project: Datos sobre el brote de la pandemia en el país.</t>
   </si>
   <si>
@@ -356,9 +338,6 @@
     <t>www.elpaisvallenato.com</t>
   </si>
   <si>
-    <t>El País Vallenato</t>
-  </si>
-  <si>
     <t>https://coviddataproject.com/image/c7f9fba1cf4d6a285f6bdce141d34052.jpg</t>
   </si>
   <si>
@@ -386,9 +365,6 @@
     <t>https://coviddataproject.com/proposes/coronavirus-cases-deaths</t>
   </si>
   <si>
-    <t>Siga aquí en tiempo real el comportamiento de las muertes por coronavirus en Colombia.</t>
-  </si>
-  <si>
     <t>https://coviddataproject.com/favicon/android-chrome-512x512.png</t>
   </si>
   <si>
@@ -399,6 +375,30 @@
   </si>
   <si>
     <t>Seguimientos de fallecidos por Coronavirus en Colombia</t>
+  </si>
+  <si>
+    <t>Camilo Egaña</t>
+  </si>
+  <si>
+    <t>Siga en tiempo real el comportamiento del coronavirus en el ATLANTICO.</t>
+  </si>
+  <si>
+    <t>El Pais Vallenato</t>
+  </si>
+  <si>
+    <t>Siga en tiempo real el comportamiento del coronavirus en COLOMBIA.</t>
+  </si>
+  <si>
+    <t>Siga en tiempo real el comportamiento de las muertes por coronavirus en COLOMBIA.</t>
+  </si>
+  <si>
+    <t>Cómo se hace el conteo de enfermos y muertos en la Universidad Johns Hopkins?</t>
+  </si>
+  <si>
+    <t>Como se propaga el covid-19 en el aire en espacios cerrados</t>
+  </si>
+  <si>
+    <t>CNN espanol</t>
   </si>
 </sst>
 </file>
@@ -818,9 +818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9725B9B0-E9F8-41C3-9EFA-A6F301ED435A}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="82.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -842,7 +842,7 @@
     <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="73.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>30</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="6" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1083,34 +1083,34 @@
     </row>
     <row r="7" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="4"/>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="8" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1128,27 +1128,27 @@
       </c>
       <c r="D8" s="4" t="str">
         <f>G8</f>
-        <v>CNN español</v>
+        <v>CNN espanol</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="4"/>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="9" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1169,10 +1169,10 @@
         <v>The New York Times</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>25</v>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="4"/>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="10" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1207,24 +1207,24 @@
         <v>Ministerio de Salud</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="4"/>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="11" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1245,10 +1245,10 @@
         <v>The New York Times</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>25</v>
@@ -1258,11 +1258,11 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="4"/>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="12" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1283,24 +1283,24 @@
         <v>El Bolivarense</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="4"/>
@@ -1308,37 +1308,37 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>103</v>
+    <row r="13" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44049</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>El País Vallenato</v>
+        <f>G13</f>
+        <v>Diario del Norte</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>104</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="4"/>
@@ -1346,9 +1346,9 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>44049</v>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -1356,27 +1356,27 @@
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Diario del Norte</v>
+        <v>El Pais Vallenato</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="4"/>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="15" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1397,24 +1397,24 @@
         <v>El Heraldo</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="4"/>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="16" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1435,10 +1435,10 @@
         <v>The New York Times</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>25</v>
@@ -1448,11 +1448,11 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="5" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="4"/>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="17" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1473,24 +1473,24 @@
         <v>The COVID-19 Colombia Project</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="4"/>
@@ -1502,21 +1502,19 @@
   <hyperlinks>
     <hyperlink ref="L11" r:id="rId1" xr:uid="{708E0A63-924A-438D-9AA3-4DC8D29018A6}"/>
     <hyperlink ref="J9" r:id="rId2" xr:uid="{85C9D370-3C64-4ED0-B47B-CCF046C1CA01}"/>
-    <hyperlink ref="J11" r:id="rId3" xr:uid="{0FB0549D-B3FB-4DC7-8240-AF3C7280538A}"/>
-    <hyperlink ref="L16" r:id="rId4" xr:uid="{8F52CF95-1142-4FAF-9C08-8664B6D7374D}"/>
-    <hyperlink ref="J16" r:id="rId5" xr:uid="{6ED60620-8062-4199-AA9B-55FCBB0B5DD8}"/>
-    <hyperlink ref="L12" r:id="rId6" xr:uid="{9457DDBE-4E11-49B5-B7B7-DA30B5BEB076}"/>
-    <hyperlink ref="J12" r:id="rId7" xr:uid="{A1578BE5-20A7-4246-A63C-B17E1A326CB6}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{FE5D538C-9847-4E60-AD75-CED0D934FC7E}"/>
-    <hyperlink ref="L13" r:id="rId9" xr:uid="{C24DF0D1-634B-4DD0-BD8F-6647E7B21357}"/>
-    <hyperlink ref="H13" r:id="rId10" xr:uid="{C0E9F635-FE8C-4D3D-B67C-980C614B14A6}"/>
-    <hyperlink ref="J13" r:id="rId11" xr:uid="{932CA97D-64D2-4BED-90B9-319A8CB55F69}"/>
-    <hyperlink ref="L14" r:id="rId12" xr:uid="{C7F8E0B7-6571-452E-9201-2F23F3B9CB9D}"/>
-    <hyperlink ref="J14" r:id="rId13" xr:uid="{E5309B28-4683-4A9B-A36B-79ACC222777D}"/>
-    <hyperlink ref="H14" r:id="rId14" xr:uid="{0330DB56-24B6-42AD-8EBE-824EF5FB4B61}"/>
-    <hyperlink ref="L17" r:id="rId15" xr:uid="{48A8AEA8-D4E9-4733-8495-C420948E42CF}"/>
-    <hyperlink ref="J17" r:id="rId16" xr:uid="{F6138B9C-F1F2-4133-A7AA-E3BF6ACDDC9A}"/>
-    <hyperlink ref="H17" r:id="rId17" xr:uid="{03FCD829-DCAB-4E60-9601-AF94137C2203}"/>
+    <hyperlink ref="L16" r:id="rId3" xr:uid="{8F52CF95-1142-4FAF-9C08-8664B6D7374D}"/>
+    <hyperlink ref="L12" r:id="rId4" xr:uid="{9457DDBE-4E11-49B5-B7B7-DA30B5BEB076}"/>
+    <hyperlink ref="J12" r:id="rId5" xr:uid="{A1578BE5-20A7-4246-A63C-B17E1A326CB6}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{FE5D538C-9847-4E60-AD75-CED0D934FC7E}"/>
+    <hyperlink ref="L14" r:id="rId7" xr:uid="{C24DF0D1-634B-4DD0-BD8F-6647E7B21357}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{C0E9F635-FE8C-4D3D-B67C-980C614B14A6}"/>
+    <hyperlink ref="J14" r:id="rId9" xr:uid="{932CA97D-64D2-4BED-90B9-319A8CB55F69}"/>
+    <hyperlink ref="L13" r:id="rId10" xr:uid="{C7F8E0B7-6571-452E-9201-2F23F3B9CB9D}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{E5309B28-4683-4A9B-A36B-79ACC222777D}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{0330DB56-24B6-42AD-8EBE-824EF5FB4B61}"/>
+    <hyperlink ref="L17" r:id="rId13" xr:uid="{48A8AEA8-D4E9-4733-8495-C420948E42CF}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{F6138B9C-F1F2-4133-A7AA-E3BF6ACDDC9A}"/>
+    <hyperlink ref="H17" r:id="rId15" xr:uid="{03FCD829-DCAB-4E60-9601-AF94137C2203}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/news/news.xlsx
+++ b/news/news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/jm_dazae_uniandes_edu_co/Documents/The Colombia COVID-19 Project/DOCUMENTACIÓN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="114_{928E7F7F-F358-4867-BDBC-FCA11BF6E89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14C9E701-DEAD-4B1C-80F0-0A45AD5E6479}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="114_{928E7F7F-F358-4867-BDBC-FCA11BF6E89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5F54BD91-BA58-476C-9406-1026C18D9738}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A9789F3-05F9-0441-9A2E-D1F2230A9EF7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
   <si>
     <t>title</t>
   </si>
@@ -266,9 +266,6 @@
     <t>05-21-2020</t>
   </si>
   <si>
-    <t>Siga aquí en tiempo real el comportamiento del coronavirus en el Atlántico.</t>
-  </si>
-  <si>
     <t>El Heraldo</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>El Bolivarense</t>
   </si>
   <si>
-    <t>The COVID-19 Colombia Project: Datos sobre el brote de la pandemia en el país.</t>
-  </si>
-  <si>
     <t>05-27-2020</t>
   </si>
   <si>
@@ -399,6 +393,9 @@
   </si>
   <si>
     <t>CNN espanol</t>
+  </si>
+  <si>
+    <t>The COVID-19 Colombia Project: Datos sobre el brote de la pandemia en COLOMBIA.</t>
   </si>
 </sst>
 </file>
@@ -818,9 +815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9725B9B0-E9F8-41C3-9EFA-A6F301ED435A}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:Q17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="82.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -842,7 +839,7 @@
     <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="73.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1090,16 +1087,16 @@
         <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>55</v>
@@ -1120,7 +1117,7 @@
     </row>
     <row r="8" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1131,13 +1128,13 @@
         <v>CNN espanol</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>55</v>
@@ -1234,7 +1231,7 @@
     </row>
     <row r="11" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1245,10 +1242,10 @@
         <v>The New York Times</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>25</v>
@@ -1262,7 +1259,7 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="4"/>
@@ -1272,7 +1269,7 @@
     </row>
     <row r="12" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1283,24 +1280,24 @@
         <v>El Bolivarense</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="4"/>
@@ -1321,24 +1318,24 @@
         <v>Diario del Norte</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="4"/>
@@ -1348,7 +1345,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -1359,24 +1356,24 @@
         <v>El Pais Vallenato</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="4"/>
@@ -1397,24 +1394,24 @@
         <v>El Heraldo</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="4"/>
@@ -1424,7 +1421,7 @@
     </row>
     <row r="16" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1435,10 +1432,10 @@
         <v>The New York Times</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>25</v>
@@ -1452,7 +1449,7 @@
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="4"/>
@@ -1462,7 +1459,7 @@
     </row>
     <row r="17" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1473,24 +1470,24 @@
         <v>The COVID-19 Colombia Project</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="4"/>

--- a/news/news.xlsx
+++ b/news/news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/jm_dazae_uniandes_edu_co/Documents/The Colombia COVID-19 Project/DOCUMENTACIÓN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="114_{928E7F7F-F358-4867-BDBC-FCA11BF6E89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5F54BD91-BA58-476C-9406-1026C18D9738}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="114_{928E7F7F-F358-4867-BDBC-FCA11BF6E89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07407138-2BF6-4F63-9557-85788D7DE72E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A9789F3-05F9-0441-9A2E-D1F2230A9EF7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="133">
   <si>
     <t>title</t>
   </si>
@@ -359,18 +359,12 @@
     <t>https://coviddataproject.com/proposes/coronavirus-cases-deaths</t>
   </si>
   <si>
-    <t>https://coviddataproject.com/favicon/android-chrome-512x512.png</t>
-  </si>
-  <si>
     <t>The COVID-19 Colombia Project</t>
   </si>
   <si>
     <t>www.coviddataproject.com</t>
   </si>
   <si>
-    <t>Seguimientos de fallecidos por Coronavirus en Colombia</t>
-  </si>
-  <si>
     <t>Camilo Egaña</t>
   </si>
   <si>
@@ -396,6 +390,48 @@
   </si>
   <si>
     <t>The COVID-19 Colombia Project: Datos sobre el brote de la pandemia en COLOMBIA.</t>
+  </si>
+  <si>
+    <t>Seguimientos de fallecidos por Coronavirus en Colombia.</t>
+  </si>
+  <si>
+    <t>Los primeros noventa días de la pandemia en Santa Marta en cifras.</t>
+  </si>
+  <si>
+    <t>Desde el 20 de marzo la capital magdalenense registró el primer caso de contagio por coronavirus en la ciudad, durante estos tres meses los contagios han aumentado hasta un 70 por ciento.</t>
+  </si>
+  <si>
+    <t>El Informador</t>
+  </si>
+  <si>
+    <t>www.elinformador.com.co</t>
+  </si>
+  <si>
+    <t>https://www.elinformador.com.co/images/stories/deportes/2020/06-junio/20tema_1.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.elinformador.com.co/index.php/el-magdalena/81-distrito/234773-los-primeros-noventas-dias-de-la-pandemia-en-santa-marta-en-cifras</t>
+  </si>
+  <si>
+    <t>Julio Mario Daza, Elis Hading Daza y Oswaldo Marchena M.</t>
+  </si>
+  <si>
+    <t>Lorica contra las cuerdas por causa del coronavirus.</t>
+  </si>
+  <si>
+    <t>A la fecha solo 3 de los 30 municipios de departamento no presentan casos confirmados, estos son: La Apartada, Momil y San Jose de Ure.</t>
+  </si>
+  <si>
+    <t>Burbuja Politica</t>
+  </si>
+  <si>
+    <t>www.burbujapolitica.com</t>
+  </si>
+  <si>
+    <t>http://burbujapolitica.com/wp-content/uploads/2020/06/WhatsApp-Image-2020-06-27-at-1.37.28-PM-660x330.jpeg</t>
+  </si>
+  <si>
+    <t>http://burbujapolitica.com/lorica-contra-las-cuerdas-por-causa-del-coronavirus/</t>
   </si>
 </sst>
 </file>
@@ -813,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9725B9B0-E9F8-41C3-9EFA-A6F301ED435A}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -839,7 +875,7 @@
     <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="73.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1087,16 +1123,16 @@
         <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>55</v>
@@ -1128,13 +1164,13 @@
         <v>CNN espanol</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>55</v>
@@ -1200,7 +1236,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f t="shared" ref="D10:D17" si="0">G10</f>
+        <f t="shared" ref="D10:D18" si="0">G10</f>
         <v>Ministerio de Salud</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1280,10 +1316,10 @@
         <v>El Bolivarense</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>93</v>
@@ -1359,10 +1395,10 @@
         <v>96</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>98</v>
@@ -1394,10 +1430,10 @@
         <v>El Heraldo</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>77</v>
@@ -1470,20 +1506,20 @@
         <v>The COVID-19 Colombia Project</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="5" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="5" t="s">
@@ -1495,23 +1531,104 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
+    <row r="18" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44002</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>El Informador</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44009</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L11" r:id="rId1" xr:uid="{708E0A63-924A-438D-9AA3-4DC8D29018A6}"/>
-    <hyperlink ref="J9" r:id="rId2" xr:uid="{85C9D370-3C64-4ED0-B47B-CCF046C1CA01}"/>
-    <hyperlink ref="L16" r:id="rId3" xr:uid="{8F52CF95-1142-4FAF-9C08-8664B6D7374D}"/>
-    <hyperlink ref="L12" r:id="rId4" xr:uid="{9457DDBE-4E11-49B5-B7B7-DA30B5BEB076}"/>
-    <hyperlink ref="J12" r:id="rId5" xr:uid="{A1578BE5-20A7-4246-A63C-B17E1A326CB6}"/>
-    <hyperlink ref="H12" r:id="rId6" xr:uid="{FE5D538C-9847-4E60-AD75-CED0D934FC7E}"/>
-    <hyperlink ref="L14" r:id="rId7" xr:uid="{C24DF0D1-634B-4DD0-BD8F-6647E7B21357}"/>
-    <hyperlink ref="H14" r:id="rId8" xr:uid="{C0E9F635-FE8C-4D3D-B67C-980C614B14A6}"/>
-    <hyperlink ref="J14" r:id="rId9" xr:uid="{932CA97D-64D2-4BED-90B9-319A8CB55F69}"/>
-    <hyperlink ref="L13" r:id="rId10" xr:uid="{C7F8E0B7-6571-452E-9201-2F23F3B9CB9D}"/>
-    <hyperlink ref="J13" r:id="rId11" xr:uid="{E5309B28-4683-4A9B-A36B-79ACC222777D}"/>
-    <hyperlink ref="H13" r:id="rId12" xr:uid="{0330DB56-24B6-42AD-8EBE-824EF5FB4B61}"/>
-    <hyperlink ref="L17" r:id="rId13" xr:uid="{48A8AEA8-D4E9-4733-8495-C420948E42CF}"/>
-    <hyperlink ref="J17" r:id="rId14" xr:uid="{F6138B9C-F1F2-4133-A7AA-E3BF6ACDDC9A}"/>
-    <hyperlink ref="H17" r:id="rId15" xr:uid="{03FCD829-DCAB-4E60-9601-AF94137C2203}"/>
+    <hyperlink ref="L11" r:id="rId1" xr:uid="{83777D5A-C3DE-4AB8-900C-F367FE200747}"/>
+    <hyperlink ref="J9" r:id="rId2" xr:uid="{93B05C06-A138-4FFE-A7AF-0D14BBEB1521}"/>
+    <hyperlink ref="L16" r:id="rId3" xr:uid="{A36E6C8F-628E-41DA-A848-FFA80412CB02}"/>
+    <hyperlink ref="L12" r:id="rId4" xr:uid="{5E03AF0B-38B4-4531-9F5A-F6C3355E5C7F}"/>
+    <hyperlink ref="J12" r:id="rId5" xr:uid="{1DCDF059-ADA0-437A-8F4A-BF888D74CCE2}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{9EFFD672-278F-43D2-AAA1-9DE66885FB26}"/>
+    <hyperlink ref="L14" r:id="rId7" xr:uid="{B89F245B-D519-4846-B692-0DF2E6CF0C23}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{F7E9A0AC-FDCF-4B46-845B-060632040040}"/>
+    <hyperlink ref="J14" r:id="rId9" xr:uid="{BF267A32-FDDF-4704-A71B-A55672454156}"/>
+    <hyperlink ref="L13" r:id="rId10" xr:uid="{503E97D7-25C6-45AC-AF24-37CBDE26776E}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{0FB43A7B-11F4-4309-B1E6-D863AFAC5E8E}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{34B63F40-0FE0-4C25-AACF-508EEF164363}"/>
+    <hyperlink ref="L17" r:id="rId13" xr:uid="{32C76617-4444-41E2-8260-2A56152A1F26}"/>
+    <hyperlink ref="H17" r:id="rId14" xr:uid="{7BAB5E21-091D-453A-9A71-A87999F923AE}"/>
+    <hyperlink ref="L19" r:id="rId15" xr:uid="{6FD61323-351B-42AC-8ABF-63189580B91E}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{99A855A6-1E9B-4BE3-808E-3AF6372BD61C}"/>
+    <hyperlink ref="J19" r:id="rId17" xr:uid="{3DD30B13-681A-4ACF-A7FF-B97940E74C16}"/>
+    <hyperlink ref="H19" r:id="rId18" xr:uid="{623004C5-9589-40EF-8432-64F58ABF4D5B}"/>
+    <hyperlink ref="L18" r:id="rId19" xr:uid="{C395809A-1170-4513-BDE1-70B77EC6DDAA}"/>
+    <hyperlink ref="J18" r:id="rId20" xr:uid="{29BAA5B6-E085-4D2E-867B-1295894DB8D0}"/>
+    <hyperlink ref="H18" r:id="rId21" xr:uid="{0B7B91FE-50E4-41BD-BFA1-34FA80AE3246}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
